--- a/4-EarthquakeAnalysisStatisticsMapping/earthquake.xlsx
+++ b/4-EarthquakeAnalysisStatisticsMapping/earthquake.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TuncayErol\Desktop\DepremAnaliz\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D137FB9A-E2AF-4624-A906-2DB6C2B95E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sayfa1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -6097,8 +6091,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6114,7 +6109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -6146,36 +6141,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6186,10 +6177,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -6227,71 +6218,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6319,7 +6310,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -6342,11 +6333,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -6355,13 +6346,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -6371,7 +6362,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -6380,7 +6371,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -6389,7 +6380,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -6397,10 +6388,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -6465,31 +6456,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="4.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="29.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6521,7 +6510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -6553,7 +6542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -6585,7 +6574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -6617,7 +6606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -6649,7 +6638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -6681,7 +6670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -6713,7 +6702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -6745,7 +6734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -6777,7 +6766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -6809,7 +6798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -6841,7 +6830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -6873,7 +6862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -6905,7 +6894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -6937,7 +6926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -6969,7 +6958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -7001,7 +6990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -7033,7 +7022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -7065,7 +7054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -7097,7 +7086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -7129,7 +7118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -7161,7 +7150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -7193,7 +7182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -7225,7 +7214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -7257,7 +7246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -7289,7 +7278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -7321,7 +7310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -7353,7 +7342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -7385,7 +7374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -7417,7 +7406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -7449,7 +7438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -7481,7 +7470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -7513,7 +7502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -7545,7 +7534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -7577,7 +7566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -7609,7 +7598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -7641,7 +7630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -7673,7 +7662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -7705,7 +7694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
         <v>207</v>
       </c>
@@ -7737,7 +7726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
         <v>207</v>
       </c>
@@ -7769,7 +7758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
         <v>207</v>
       </c>
@@ -7801,7 +7790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
         <v>207</v>
       </c>
@@ -7833,7 +7822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
         <v>207</v>
       </c>
@@ -7865,7 +7854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
         <v>207</v>
       </c>
@@ -7897,7 +7886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
         <v>207</v>
       </c>
@@ -7929,7 +7918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
         <v>207</v>
       </c>
@@ -7961,7 +7950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
         <v>207</v>
       </c>
@@ -7993,7 +7982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
         <v>207</v>
       </c>
@@ -8025,7 +8014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
         <v>207</v>
       </c>
@@ -8057,7 +8046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
         <v>207</v>
       </c>
@@ -8089,7 +8078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
         <v>207</v>
       </c>
@@ -8121,7 +8110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
         <v>207</v>
       </c>
@@ -8153,7 +8142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
         <v>207</v>
       </c>
@@ -8185,7 +8174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
         <v>207</v>
       </c>
@@ -8217,7 +8206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1" t="s">
         <v>207</v>
       </c>
@@ -8249,7 +8238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
         <v>207</v>
       </c>
@@ -8281,7 +8270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
         <v>207</v>
       </c>
@@ -8313,7 +8302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
         <v>207</v>
       </c>
@@ -8345,7 +8334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
         <v>207</v>
       </c>
@@ -8377,7 +8366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
         <v>207</v>
       </c>
@@ -8409,7 +8398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
         <v>207</v>
       </c>
@@ -8441,7 +8430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
         <v>207</v>
       </c>
@@ -8473,7 +8462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
         <v>207</v>
       </c>
@@ -8505,7 +8494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
         <v>207</v>
       </c>
@@ -8537,7 +8526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
         <v>207</v>
       </c>
@@ -8569,7 +8558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
         <v>207</v>
       </c>
@@ -8601,7 +8590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1" t="s">
         <v>207</v>
       </c>
@@ -8633,7 +8622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
         <v>207</v>
       </c>
@@ -8665,7 +8654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
         <v>207</v>
       </c>
@@ -8697,7 +8686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
         <v>207</v>
       </c>
@@ -8729,7 +8718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
         <v>207</v>
       </c>
@@ -8761,7 +8750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
         <v>207</v>
       </c>
@@ -8793,7 +8782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
         <v>207</v>
       </c>
@@ -8825,7 +8814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
@@ -8857,7 +8846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1" t="s">
         <v>207</v>
       </c>
@@ -8889,7 +8878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1" t="s">
         <v>207</v>
       </c>
@@ -8921,7 +8910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1" t="s">
         <v>207</v>
       </c>
@@ -8953,7 +8942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1" t="s">
         <v>207</v>
       </c>
@@ -8985,7 +8974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
         <v>207</v>
       </c>
@@ -9017,7 +9006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
         <v>207</v>
       </c>
@@ -9049,7 +9038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
         <v>207</v>
       </c>
@@ -9081,7 +9070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
         <v>207</v>
       </c>
@@ -9113,7 +9102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
         <v>207</v>
       </c>
@@ -9145,7 +9134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
         <v>207</v>
       </c>
@@ -9177,7 +9166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
         <v>207</v>
       </c>
@@ -9209,7 +9198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
         <v>207</v>
       </c>
@@ -9241,7 +9230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1" t="s">
         <v>207</v>
       </c>
@@ -9273,7 +9262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
         <v>207</v>
       </c>
@@ -9305,7 +9294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1" t="s">
         <v>423</v>
       </c>
@@ -9337,7 +9326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1" t="s">
         <v>423</v>
       </c>
@@ -9369,7 +9358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1" t="s">
         <v>423</v>
       </c>
@@ -9401,7 +9390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1" t="s">
         <v>423</v>
       </c>
@@ -9433,7 +9422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1" t="s">
         <v>423</v>
       </c>
@@ -9465,7 +9454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1" t="s">
         <v>423</v>
       </c>
@@ -9497,7 +9486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1" t="s">
         <v>423</v>
       </c>
@@ -9529,7 +9518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1" t="s">
         <v>423</v>
       </c>
@@ -9561,7 +9550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1" t="s">
         <v>423</v>
       </c>
@@ -9593,7 +9582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1" t="s">
         <v>423</v>
       </c>
@@ -9625,7 +9614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1" t="s">
         <v>423</v>
       </c>
@@ -9657,7 +9646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1" t="s">
         <v>423</v>
       </c>
@@ -9689,7 +9678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1" t="s">
         <v>423</v>
       </c>
@@ -9721,7 +9710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1" t="s">
         <v>423</v>
       </c>
@@ -9753,7 +9742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1" t="s">
         <v>423</v>
       </c>
@@ -9785,7 +9774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1" t="s">
         <v>423</v>
       </c>
@@ -9817,7 +9806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1" t="s">
         <v>423</v>
       </c>
@@ -9849,7 +9838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1" t="s">
         <v>423</v>
       </c>
@@ -9881,7 +9870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1" t="s">
         <v>423</v>
       </c>
@@ -9913,7 +9902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1" t="s">
         <v>423</v>
       </c>
@@ -9945,7 +9934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1" t="s">
         <v>423</v>
       </c>
@@ -9977,7 +9966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1" t="s">
         <v>423</v>
       </c>
@@ -10009,7 +9998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1" t="s">
         <v>423</v>
       </c>
@@ -10041,7 +10030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1" t="s">
         <v>423</v>
       </c>
@@ -10073,7 +10062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1" t="s">
         <v>423</v>
       </c>
@@ -10105,7 +10094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1" t="s">
         <v>423</v>
       </c>
@@ -10137,7 +10126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1" t="s">
         <v>423</v>
       </c>
@@ -10169,7 +10158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1" t="s">
         <v>423</v>
       </c>
@@ -10201,7 +10190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1" t="s">
         <v>423</v>
       </c>
@@ -10233,7 +10222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1" t="s">
         <v>423</v>
       </c>
@@ -10265,7 +10254,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1" t="s">
         <v>423</v>
       </c>
@@ -10297,7 +10286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1" t="s">
         <v>423</v>
       </c>
@@ -10329,7 +10318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1" t="s">
         <v>423</v>
       </c>
@@ -10361,7 +10350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1" t="s">
         <v>423</v>
       </c>
@@ -10393,7 +10382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1" t="s">
         <v>423</v>
       </c>
@@ -10425,7 +10414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1" t="s">
         <v>423</v>
       </c>
@@ -10457,7 +10446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1" t="s">
         <v>423</v>
       </c>
@@ -10489,7 +10478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1" t="s">
         <v>423</v>
       </c>
@@ -10521,7 +10510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1" t="s">
         <v>423</v>
       </c>
@@ -10553,7 +10542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1" t="s">
         <v>423</v>
       </c>
@@ -10585,7 +10574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1" t="s">
         <v>423</v>
       </c>
@@ -10617,7 +10606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1" t="s">
         <v>423</v>
       </c>
@@ -10649,7 +10638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1" t="s">
         <v>423</v>
       </c>
@@ -10681,7 +10670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1" t="s">
         <v>423</v>
       </c>
@@ -10713,7 +10702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1" t="s">
         <v>423</v>
       </c>
@@ -10745,7 +10734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1" t="s">
         <v>613</v>
       </c>
@@ -10777,7 +10766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1" t="s">
         <v>613</v>
       </c>
@@ -10809,7 +10798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1" t="s">
         <v>613</v>
       </c>
@@ -10841,7 +10830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1" t="s">
         <v>613</v>
       </c>
@@ -10873,7 +10862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1" t="s">
         <v>613</v>
       </c>
@@ -10905,7 +10894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1" t="s">
         <v>613</v>
       </c>
@@ -10937,7 +10926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1" t="s">
         <v>613</v>
       </c>
@@ -10969,7 +10958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1" t="s">
         <v>613</v>
       </c>
@@ -11001,7 +10990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1" t="s">
         <v>613</v>
       </c>
@@ -11033,7 +11022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1" t="s">
         <v>613</v>
       </c>
@@ -11065,7 +11054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1" t="s">
         <v>613</v>
       </c>
@@ -11097,7 +11086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1" t="s">
         <v>613</v>
       </c>
@@ -11129,7 +11118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1" t="s">
         <v>613</v>
       </c>
@@ -11161,7 +11150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1" t="s">
         <v>613</v>
       </c>
@@ -11193,7 +11182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1" t="s">
         <v>613</v>
       </c>
@@ -11225,7 +11214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1" t="s">
         <v>613</v>
       </c>
@@ -11257,7 +11246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1" t="s">
         <v>613</v>
       </c>
@@ -11289,7 +11278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1" t="s">
         <v>613</v>
       </c>
@@ -11321,7 +11310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1" t="s">
         <v>613</v>
       </c>
@@ -11353,7 +11342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1" t="s">
         <v>613</v>
       </c>
@@ -11385,7 +11374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1" t="s">
         <v>613</v>
       </c>
@@ -11417,7 +11406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1" t="s">
         <v>613</v>
       </c>
@@ -11449,7 +11438,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1" t="s">
         <v>613</v>
       </c>
@@ -11481,7 +11470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1" t="s">
         <v>613</v>
       </c>
@@ -11513,7 +11502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1" t="s">
         <v>613</v>
       </c>
@@ -11545,7 +11534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1" t="s">
         <v>613</v>
       </c>
@@ -11577,7 +11566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1" t="s">
         <v>613</v>
       </c>
@@ -11609,7 +11598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1" t="s">
         <v>613</v>
       </c>
@@ -11641,7 +11630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1" t="s">
         <v>613</v>
       </c>
@@ -11673,7 +11662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1" t="s">
         <v>613</v>
       </c>
@@ -11705,7 +11694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1" t="s">
         <v>613</v>
       </c>
@@ -11737,7 +11726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1" t="s">
         <v>613</v>
       </c>
@@ -11769,7 +11758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1" t="s">
         <v>613</v>
       </c>
@@ -11801,7 +11790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1" t="s">
         <v>613</v>
       </c>
@@ -11833,7 +11822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1" t="s">
         <v>613</v>
       </c>
@@ -11865,7 +11854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1" t="s">
         <v>613</v>
       </c>
@@ -11897,7 +11886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1" t="s">
         <v>613</v>
       </c>
@@ -11929,7 +11918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1" t="s">
         <v>613</v>
       </c>
@@ -11961,7 +11950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1" t="s">
         <v>613</v>
       </c>
@@ -11993,7 +11982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1" t="s">
         <v>613</v>
       </c>
@@ -12025,7 +12014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1" t="s">
         <v>613</v>
       </c>
@@ -12057,7 +12046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1" t="s">
         <v>613</v>
       </c>
@@ -12089,7 +12078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1" t="s">
         <v>613</v>
       </c>
@@ -12121,7 +12110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1" t="s">
         <v>613</v>
       </c>
@@ -12153,7 +12142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1" t="s">
         <v>613</v>
       </c>
@@ -12185,7 +12174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1" t="s">
         <v>613</v>
       </c>
@@ -12217,7 +12206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1" t="s">
         <v>613</v>
       </c>
@@ -12249,7 +12238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1" t="s">
         <v>613</v>
       </c>
@@ -12281,7 +12270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1" t="s">
         <v>613</v>
       </c>
@@ -12313,7 +12302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1" t="s">
         <v>613</v>
       </c>
@@ -12345,7 +12334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1" t="s">
         <v>613</v>
       </c>
@@ -12377,7 +12366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1" t="s">
         <v>827</v>
       </c>
@@ -12409,7 +12398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1" t="s">
         <v>827</v>
       </c>
@@ -12441,7 +12430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1" t="s">
         <v>827</v>
       </c>
@@ -12473,7 +12462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1" t="s">
         <v>827</v>
       </c>
@@ -12505,7 +12494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1" t="s">
         <v>827</v>
       </c>
@@ -12537,7 +12526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1" t="s">
         <v>827</v>
       </c>
@@ -12569,7 +12558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1" t="s">
         <v>827</v>
       </c>
@@ -12601,7 +12590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1" t="s">
         <v>827</v>
       </c>
@@ -12633,7 +12622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1" t="s">
         <v>827</v>
       </c>
@@ -12665,7 +12654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1" t="s">
         <v>827</v>
       </c>
@@ -12697,7 +12686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1" t="s">
         <v>827</v>
       </c>
@@ -12729,7 +12718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1" t="s">
         <v>827</v>
       </c>
@@ -12761,7 +12750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1" t="s">
         <v>827</v>
       </c>
@@ -12793,7 +12782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1" t="s">
         <v>827</v>
       </c>
@@ -12825,7 +12814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1" t="s">
         <v>827</v>
       </c>
@@ -12857,7 +12846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="1" t="s">
         <v>827</v>
       </c>
@@ -12889,7 +12878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1" t="s">
         <v>827</v>
       </c>
@@ -12921,7 +12910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="1" t="s">
         <v>827</v>
       </c>
@@ -12953,7 +12942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="1" t="s">
         <v>827</v>
       </c>
@@ -12985,7 +12974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1" t="s">
         <v>827</v>
       </c>
@@ -13017,7 +13006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="1" t="s">
         <v>827</v>
       </c>
@@ -13049,7 +13038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1" t="s">
         <v>827</v>
       </c>
@@ -13081,7 +13070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="1" t="s">
         <v>827</v>
       </c>
@@ -13113,7 +13102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="1" t="s">
         <v>827</v>
       </c>
@@ -13145,7 +13134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="1" t="s">
         <v>827</v>
       </c>
@@ -13177,7 +13166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="1" t="s">
         <v>827</v>
       </c>
@@ -13209,7 +13198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1" t="s">
         <v>827</v>
       </c>
@@ -13241,7 +13230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="1" t="s">
         <v>827</v>
       </c>
@@ -13273,7 +13262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="1" t="s">
         <v>827</v>
       </c>
@@ -13305,7 +13294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="1" t="s">
         <v>827</v>
       </c>
@@ -13337,7 +13326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="1" t="s">
         <v>827</v>
       </c>
@@ -13369,7 +13358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1" t="s">
         <v>827</v>
       </c>
@@ -13401,7 +13390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1" t="s">
         <v>827</v>
       </c>
@@ -13433,7 +13422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1" t="s">
         <v>827</v>
       </c>
@@ -13465,7 +13454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1" t="s">
         <v>827</v>
       </c>
@@ -13497,7 +13486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1" t="s">
         <v>827</v>
       </c>
@@ -13529,7 +13518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1" t="s">
         <v>827</v>
       </c>
@@ -13561,7 +13550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1" t="s">
         <v>827</v>
       </c>
@@ -13593,7 +13582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1" t="s">
         <v>827</v>
       </c>
@@ -13625,7 +13614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="1" t="s">
         <v>827</v>
       </c>
@@ -13657,7 +13646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="1" t="s">
         <v>827</v>
       </c>
@@ -13689,7 +13678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="1" t="s">
         <v>827</v>
       </c>
@@ -13721,7 +13710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="1" t="s">
         <v>827</v>
       </c>
@@ -13753,7 +13742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1" t="s">
         <v>827</v>
       </c>
@@ -13785,7 +13774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1" t="s">
         <v>827</v>
       </c>
@@ -13817,7 +13806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1" t="s">
         <v>827</v>
       </c>
@@ -13849,7 +13838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1" t="s">
         <v>827</v>
       </c>
@@ -13881,7 +13870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1" t="s">
         <v>827</v>
       </c>
@@ -13913,7 +13902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1" t="s">
         <v>827</v>
       </c>
@@ -13945,7 +13934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1" t="s">
         <v>827</v>
       </c>
@@ -13977,7 +13966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1" t="s">
         <v>827</v>
       </c>
@@ -14009,7 +13998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="1" t="s">
         <v>827</v>
       </c>
@@ -14041,7 +14030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="1" t="s">
         <v>827</v>
       </c>
@@ -14073,7 +14062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="1" t="s">
         <v>827</v>
       </c>
@@ -14105,7 +14094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="1" t="s">
         <v>827</v>
       </c>
@@ -14137,7 +14126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="1" t="s">
         <v>827</v>
       </c>
@@ -14169,7 +14158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="1" t="s">
         <v>827</v>
       </c>
@@ -14201,7 +14190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="1" t="s">
         <v>827</v>
       </c>
@@ -14233,7 +14222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="1" t="s">
         <v>827</v>
       </c>
@@ -14265,7 +14254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="1" t="s">
         <v>827</v>
       </c>
@@ -14297,7 +14286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="1" t="s">
         <v>827</v>
       </c>
@@ -14329,7 +14318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="1" t="s">
         <v>827</v>
       </c>
@@ -14361,7 +14350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="1" t="s">
         <v>827</v>
       </c>
@@ -14393,7 +14382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="1" t="s">
         <v>827</v>
       </c>
@@ -14425,7 +14414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="1" t="s">
         <v>827</v>
       </c>
@@ -14457,7 +14446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="1" t="s">
         <v>827</v>
       </c>
@@ -14489,7 +14478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="1" t="s">
         <v>827</v>
       </c>
@@ -14521,7 +14510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="1" t="s">
         <v>827</v>
       </c>
@@ -14553,7 +14542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="1" t="s">
         <v>827</v>
       </c>
@@ -14585,7 +14574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="1" t="s">
         <v>827</v>
       </c>
@@ -14617,7 +14606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="1" t="s">
         <v>827</v>
       </c>
@@ -14649,7 +14638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14681,7 +14670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14713,7 +14702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14745,7 +14734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14777,7 +14766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14809,7 +14798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14841,7 +14830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14873,7 +14862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14905,7 +14894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14937,7 +14926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14969,7 +14958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15001,7 +14990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15033,7 +15022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15065,7 +15054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15097,7 +15086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15129,7 +15118,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15161,7 +15150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15193,7 +15182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15225,7 +15214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15257,7 +15246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15289,7 +15278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15321,7 +15310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15353,7 +15342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15385,7 +15374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15417,7 +15406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15449,7 +15438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15481,7 +15470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
       <c r="A282" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15513,7 +15502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15545,7 +15534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
       <c r="A284" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15577,7 +15566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
       <c r="A285" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15609,7 +15598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
       <c r="A286" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15641,7 +15630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15673,7 +15662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15705,7 +15694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
       <c r="A289" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15737,7 +15726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
       <c r="A290" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15769,7 +15758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
       <c r="A291" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15801,7 +15790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
       <c r="A292" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15833,7 +15822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15865,7 +15854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
       <c r="A294" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15897,7 +15886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
       <c r="A295" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15929,7 +15918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
       <c r="A296" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15961,7 +15950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
       <c r="A297" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15993,7 +15982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16025,7 +16014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
       <c r="A299" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16057,7 +16046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16089,7 +16078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16121,7 +16110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
       <c r="A302" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16153,7 +16142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
       <c r="A303" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16185,7 +16174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
       <c r="A304" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16217,7 +16206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
       <c r="A305" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16249,7 +16238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
       <c r="A306" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16281,7 +16270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
       <c r="A307" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16313,7 +16302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16345,7 +16334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
       <c r="A309" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16377,7 +16366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
       <c r="A310" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16409,7 +16398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
       <c r="A311" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16441,7 +16430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
       <c r="A312" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16473,7 +16462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
       <c r="A313" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16505,7 +16494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
       <c r="A314" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16537,7 +16526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
       <c r="A315" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16569,7 +16558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
       <c r="A316" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16601,7 +16590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
       <c r="A317" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16633,7 +16622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
       <c r="A318" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16665,7 +16654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
       <c r="A319" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16697,7 +16686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
       <c r="A320" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16729,7 +16718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
       <c r="A321" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16761,7 +16750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
       <c r="A322" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16793,7 +16782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
       <c r="A323" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16825,7 +16814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
       <c r="A324" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16857,7 +16846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
       <c r="A325" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16889,7 +16878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
       <c r="A326" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16921,7 +16910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
       <c r="A327" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16953,7 +16942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
       <c r="A328" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16985,7 +16974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
       <c r="A329" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17017,7 +17006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
       <c r="A330" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17049,7 +17038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
       <c r="A331" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17081,7 +17070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
       <c r="A332" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17113,7 +17102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
       <c r="A333" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17145,7 +17134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
       <c r="A334" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17177,7 +17166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
       <c r="A335" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17209,7 +17198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
       <c r="A336" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17241,7 +17230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
       <c r="A337" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17273,7 +17262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
       <c r="A338" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17305,7 +17294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
       <c r="A339" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17337,7 +17326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
       <c r="A340" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17369,7 +17358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
       <c r="A341" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17401,7 +17390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
       <c r="A342" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17433,7 +17422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
       <c r="A343" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17465,7 +17454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
       <c r="A344" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17497,7 +17486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
       <c r="A345" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17529,7 +17518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
       <c r="A346" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17561,7 +17550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
       <c r="A347" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17593,7 +17582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
       <c r="A348" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17625,7 +17614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
       <c r="A349" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17657,7 +17646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
       <c r="A350" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17689,7 +17678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
       <c r="A351" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17721,7 +17710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
       <c r="A352" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17753,7 +17742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
       <c r="A353" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17785,7 +17774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
       <c r="A354" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17817,7 +17806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
       <c r="A355" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17849,7 +17838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
       <c r="A356" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17881,7 +17870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
       <c r="A357" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17913,7 +17902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
       <c r="A358" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17945,7 +17934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
       <c r="A359" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17977,7 +17966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
       <c r="A360" s="1" t="s">
         <v>1331</v>
       </c>
@@ -18009,7 +17998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
       <c r="A361" s="1" t="s">
         <v>1331</v>
       </c>
@@ -18041,7 +18030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
       <c r="A362" s="1" t="s">
         <v>1331</v>
       </c>
@@ -18073,7 +18062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
       <c r="A363" s="1" t="s">
         <v>1331</v>
       </c>
@@ -18105,7 +18094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
       <c r="A364" s="1" t="s">
         <v>1331</v>
       </c>
@@ -18137,7 +18126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
       <c r="A365" s="1" t="s">
         <v>1331</v>
       </c>
@@ -18169,7 +18158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
       <c r="A366" s="1" t="s">
         <v>1331</v>
       </c>
@@ -18201,7 +18190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
       <c r="A367" s="1" t="s">
         <v>1331</v>
       </c>
@@ -18233,7 +18222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
       <c r="A368" s="1" t="s">
         <v>1331</v>
       </c>
@@ -18265,7 +18254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
       <c r="A369" s="1" t="s">
         <v>1331</v>
       </c>
@@ -18297,7 +18286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
       <c r="A370" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18329,7 +18318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
       <c r="A371" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18361,7 +18350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
       <c r="A372" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18393,7 +18382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
       <c r="A373" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18425,7 +18414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
       <c r="A374" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18457,7 +18446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
       <c r="A375" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18489,7 +18478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
       <c r="A376" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18521,7 +18510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
       <c r="A377" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18553,7 +18542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
       <c r="A378" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18585,7 +18574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
       <c r="A379" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18617,7 +18606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
       <c r="A380" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18649,7 +18638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
       <c r="A381" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18681,7 +18670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
       <c r="A382" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18713,7 +18702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
       <c r="A383" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18745,7 +18734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
       <c r="A384" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18777,7 +18766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
       <c r="A385" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18809,7 +18798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
       <c r="A386" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18841,7 +18830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
       <c r="A387" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18873,7 +18862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
       <c r="A388" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18905,7 +18894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
       <c r="A389" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18937,7 +18926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
       <c r="A390" s="1" t="s">
         <v>1534</v>
       </c>
@@ -18969,7 +18958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
       <c r="A391" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19001,7 +18990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
       <c r="A392" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19033,7 +19022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
       <c r="A393" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19065,7 +19054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
       <c r="A394" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19097,7 +19086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
       <c r="A395" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19129,7 +19118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
       <c r="A396" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19161,7 +19150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
       <c r="A397" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19193,7 +19182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
       <c r="A398" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19225,7 +19214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
       <c r="A399" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19257,7 +19246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
       <c r="A400" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19289,7 +19278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
       <c r="A401" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19321,7 +19310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
       <c r="A402" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19353,7 +19342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
       <c r="A403" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19385,7 +19374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
       <c r="A404" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19417,7 +19406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
       <c r="A405" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19449,7 +19438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
       <c r="A406" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19481,7 +19470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
       <c r="A407" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19513,7 +19502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
       <c r="A408" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19545,7 +19534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
       <c r="A409" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19577,7 +19566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
       <c r="A410" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19609,7 +19598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
       <c r="A411" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19641,7 +19630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
       <c r="A412" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19673,7 +19662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
       <c r="A413" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19705,7 +19694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
       <c r="A414" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19737,7 +19726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
       <c r="A415" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19769,7 +19758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
       <c r="A416" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19801,7 +19790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
       <c r="A417" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19833,7 +19822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
       <c r="A418" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19865,7 +19854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
       <c r="A419" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19897,7 +19886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
       <c r="A420" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19929,7 +19918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
       <c r="A421" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19961,7 +19950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
       <c r="A422" s="1" t="s">
         <v>1534</v>
       </c>
@@ -19993,7 +19982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
       <c r="A423" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20025,7 +20014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
       <c r="A424" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20057,7 +20046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
       <c r="A425" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20089,7 +20078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
       <c r="A426" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20121,7 +20110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
       <c r="A427" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20153,7 +20142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
       <c r="A428" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20185,7 +20174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
       <c r="A429" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20217,7 +20206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
       <c r="A430" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20249,7 +20238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
       <c r="A431" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20281,7 +20270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
       <c r="A432" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20313,7 +20302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
       <c r="A433" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20345,7 +20334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
       <c r="A434" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20377,7 +20366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
       <c r="A435" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20409,7 +20398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
       <c r="A436" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20441,7 +20430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
       <c r="A437" s="1" t="s">
         <v>1534</v>
       </c>
@@ -20473,7 +20462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75">
       <c r="A438" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20505,7 +20494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
       <c r="A439" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20537,7 +20526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
       <c r="A440" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20569,7 +20558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
       <c r="A441" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20601,7 +20590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
       <c r="A442" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20633,7 +20622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
       <c r="A443" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20665,7 +20654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
       <c r="A444" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20697,7 +20686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75">
       <c r="A445" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20729,7 +20718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
       <c r="A446" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20761,7 +20750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
       <c r="A447" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20793,7 +20782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
       <c r="A448" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20825,7 +20814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
       <c r="A449" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20857,7 +20846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
       <c r="A450" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20889,7 +20878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
       <c r="A451" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20921,7 +20910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="452" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
       <c r="A452" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20953,7 +20942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
       <c r="A453" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20985,7 +20974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
       <c r="A454" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21017,7 +21006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75">
       <c r="A455" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21049,7 +21038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
       <c r="A456" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21081,7 +21070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
       <c r="A457" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21113,7 +21102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="458" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
       <c r="A458" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21145,7 +21134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="459" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
       <c r="A459" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21177,7 +21166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
       <c r="A460" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21209,7 +21198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
       <c r="A461" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21241,7 +21230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
       <c r="A462" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21273,7 +21262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
       <c r="A463" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21305,7 +21294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
       <c r="A464" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21337,7 +21326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
       <c r="A465" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21369,7 +21358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
       <c r="A466" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21401,7 +21390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
       <c r="A467" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21433,7 +21422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="468" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
       <c r="A468" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21465,7 +21454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
       <c r="A469" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21497,7 +21486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75">
       <c r="A470" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21529,7 +21518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="471" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75">
       <c r="A471" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21561,7 +21550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="472" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75">
       <c r="A472" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21593,7 +21582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75">
       <c r="A473" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21625,7 +21614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75">
       <c r="A474" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21657,7 +21646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75">
       <c r="A475" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21689,7 +21678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="476" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75">
       <c r="A476" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21721,7 +21710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="477" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75">
       <c r="A477" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21753,7 +21742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="478" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75">
       <c r="A478" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21785,7 +21774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="479" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75">
       <c r="A479" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21817,7 +21806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75">
       <c r="A480" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21849,7 +21838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
       <c r="A481" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21881,7 +21870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75">
       <c r="A482" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21913,7 +21902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75">
       <c r="A483" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21945,7 +21934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75">
       <c r="A484" s="1" t="s">
         <v>1789</v>
       </c>
@@ -21977,7 +21966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75">
       <c r="A485" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22009,7 +21998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75">
       <c r="A486" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22041,7 +22030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75">
       <c r="A487" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22073,7 +22062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75">
       <c r="A488" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22105,7 +22094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75">
       <c r="A489" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22137,7 +22126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75">
       <c r="A490" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22169,7 +22158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75">
       <c r="A491" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22201,7 +22190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75">
       <c r="A492" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22233,7 +22222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75">
       <c r="A493" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22265,7 +22254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75">
       <c r="A494" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22297,7 +22286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75">
       <c r="A495" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22329,7 +22318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75">
       <c r="A496" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22361,7 +22350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75">
       <c r="A497" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22393,7 +22382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75">
       <c r="A498" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22425,7 +22414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="499" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75">
       <c r="A499" s="1" t="s">
         <v>1789</v>
       </c>
@@ -22457,7 +22446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="500" spans="1:10" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75">
       <c r="A500" s="1" t="s">
         <v>1789</v>
       </c>
